--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
   <si>
     <t>stangray94</t>
   </si>
@@ -57,8 +57,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,36 +391,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>12345678</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>12345678</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>12345678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
